--- a/M2 Excel/M2.D2/ESERCIZIO M2.D2.xlsx
+++ b/M2 Excel/M2.D2/ESERCIZIO M2.D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\DATA ANALYST\Esercitazioni\M2\Esercitazione 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E429C1-8A38-41F7-A7C2-7556D5C8FDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FC3F06-5857-48C3-BAE7-5B07DB00C971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2145,6 +2145,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2184,7 +2185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2305,66 +2306,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2526,7 +2467,7 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2563,31 +2504,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="12"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="17" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="13" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="8" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2609,13 +2550,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="20" xfId="13" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
@@ -2634,55 +2571,6 @@
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -2738,6 +2626,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2788,6 +2679,52 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2974,6 +2911,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-692B-4306-B091-2AC4372C6AB0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3014,6 +2956,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-692B-4306-B091-2AC4372C6AB0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3054,6 +3001,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-692B-4306-B091-2AC4372C6AB0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3094,6 +3046,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-692B-4306-B091-2AC4372C6AB0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3134,6 +3091,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-692B-4306-B091-2AC4372C6AB0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5927,12 +5889,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6519BA90-73C7-4C17-BB64-5E1776A6710A}" name="Tabella2" displayName="Tabella2" ref="B3:D10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6519BA90-73C7-4C17-BB64-5E1776A6710A}" name="Tabella2" displayName="Tabella2" ref="B3:D10" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B3:D10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome " dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nome " dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Punteggio"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ESITO" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ESITO" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Tabella2[[#This Row],[Punteggio]],$F$3:$H$6,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5941,11 +5903,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{854F3F22-7C20-4EC8-9586-0FC61EEE12AF}" name="spesemese" displayName="spesemese" ref="C3:D16" totalsRowCount="1" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{854F3F22-7C20-4EC8-9586-0FC61EEE12AF}" name="spesemese" displayName="spesemese" ref="C3:D16" totalsRowCount="1" headerRowDxfId="3">
   <autoFilter ref="C3:D15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MESE" totalsRowLabel="Totale" dataDxfId="7" totalsRowCellStyle="Normale 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SPESA" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5" totalsRowCellStyle="Normale 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="MESE" totalsRowLabel="Totale" dataDxfId="2" totalsRowCellStyle="Normale 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SPESA" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" totalsRowCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6275,8 +6237,8 @@
   <dimension ref="A1:G322"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="4" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J296" sqref="J296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6345,7 +6307,7 @@
         <v>281000</v>
       </c>
       <c r="D5" s="29">
-        <f>(C5*IVATOT)/100</f>
+        <f t="shared" ref="D5:D68" si="0">(C5*IVATOT)/100</f>
         <v>562</v>
       </c>
       <c r="E5" s="10" t="str">
@@ -6364,11 +6326,11 @@
         <v>323000</v>
       </c>
       <c r="D6" s="29">
-        <f>(C6*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>646</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f t="shared" ref="E6:E69" si="0">_xlfn.CONCAT(A6," ",C6)</f>
+        <f t="shared" ref="E6:E69" si="1">_xlfn.CONCAT(A6," ",C6)</f>
         <v>MON.SVGA 0,28 15" AOC 5VLR 323000</v>
       </c>
     </row>
@@ -6383,11 +6345,11 @@
         <v>344000</v>
       </c>
       <c r="D7" s="29">
-        <f>(C7*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>688</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON.SVGA 0,28 15" AOC 5NLR OSD 344000</v>
       </c>
     </row>
@@ -6402,11 +6364,11 @@
         <v>361000</v>
       </c>
       <c r="D8" s="29">
-        <f>(C8*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>722</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON.SVGA 0,28 15" AOC 5GLR+ OSD 361000</v>
       </c>
     </row>
@@ -6421,11 +6383,11 @@
         <v>521000</v>
       </c>
       <c r="D9" s="29">
-        <f>(C9*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1042</v>
       </c>
       <c r="E9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 15" 0.23 CM500ET HITACHI 521000</v>
       </c>
     </row>
@@ -6440,11 +6402,11 @@
         <v>527000</v>
       </c>
       <c r="D10" s="29">
-        <f>(C10*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1054</v>
       </c>
       <c r="E10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 15" 0.28 A500 NEC 527000</v>
       </c>
     </row>
@@ -6459,11 +6421,11 @@
         <v>626000</v>
       </c>
       <c r="D11" s="29">
-        <f>(C11*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1252</v>
       </c>
       <c r="E11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON.SVGA 0,28 17" AOC 7VLR 626000</v>
       </c>
     </row>
@@ -6478,11 +6440,11 @@
         <v>656000</v>
       </c>
       <c r="D12" s="29">
-        <f>(C12*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1312</v>
       </c>
       <c r="E12" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 15" 0.25 E500 NEC, Croma Clear 656000</v>
       </c>
     </row>
@@ -6497,11 +6459,11 @@
         <v>666000</v>
       </c>
       <c r="D13" s="29">
-        <f>(C13*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1332</v>
       </c>
       <c r="E13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON.SVGA 0,26 17" AOC 7GLR OSD 666000</v>
       </c>
     </row>
@@ -6516,11 +6478,11 @@
         <v>882000</v>
       </c>
       <c r="D14" s="29">
-        <f>(C14*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1764</v>
       </c>
       <c r="E14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 17" 0.28 A700 NEC 882000</v>
       </c>
     </row>
@@ -6535,11 +6497,11 @@
         <v>1108000</v>
       </c>
       <c r="D15" s="29">
-        <f>(C15*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>2216</v>
       </c>
       <c r="E15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 17" 0.21 CM630ET HITACHI 1108000</v>
       </c>
     </row>
@@ -6554,11 +6516,11 @@
         <v>1316000</v>
       </c>
       <c r="D16" s="29">
-        <f>(C16*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>2632</v>
       </c>
       <c r="E16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 17" 0.25 P750 NEC, Croma Clear 1316000</v>
       </c>
     </row>
@@ -6573,11 +6535,11 @@
         <v>1594000</v>
       </c>
       <c r="D17" s="29">
-        <f>(C17*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>3188</v>
       </c>
       <c r="E17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 19" 0.22 CM751ET HITACHI 1594000</v>
       </c>
     </row>
@@ -6592,11 +6554,11 @@
         <v>2719000</v>
       </c>
       <c r="D18" s="29">
-        <f>(C18*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>5438</v>
       </c>
       <c r="E18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 21" 0.21 CM802ETM HITACHI 2719000</v>
       </c>
     </row>
@@ -6611,11 +6573,11 @@
         <v>4092000</v>
       </c>
       <c r="D19" s="29">
-        <f>(C19*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>8184</v>
       </c>
       <c r="E19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 14" LCD 0.28 LCD400V NEC 4092000</v>
       </c>
     </row>
@@ -6630,11 +6592,11 @@
         <v>13859000</v>
       </c>
       <c r="D20" s="29">
-        <f>(C20*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>27718</v>
       </c>
       <c r="E20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MON. 20" LCD 0.31 LCD2000sf NEC 13859000</v>
       </c>
     </row>
@@ -6649,11 +6611,11 @@
         <v>167000</v>
       </c>
       <c r="D21" s="29">
-        <f>(C21*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>334</v>
       </c>
       <c r="E21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS SP97-V SVGA SHARE MEMORY 167000</v>
       </c>
     </row>
@@ -6668,11 +6630,11 @@
         <v>202000</v>
       </c>
       <c r="D22" s="29">
-        <f>(C22*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>404</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS TXP4 202000</v>
       </c>
     </row>
@@ -6687,11 +6649,11 @@
         <v>203000</v>
       </c>
       <c r="D23" s="29">
-        <f>(C23*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>406</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS SP98AGP-X ATX 203000</v>
       </c>
     </row>
@@ -6706,11 +6668,11 @@
         <v>234000</v>
       </c>
       <c r="D24" s="29">
-        <f>(C24*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>468</v>
       </c>
       <c r="E24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS TX-97 - E  234000</v>
       </c>
     </row>
@@ -6725,11 +6687,11 @@
         <v>252000</v>
       </c>
       <c r="D25" s="29">
-        <f>(C25*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>504</v>
       </c>
       <c r="E25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS TX-97  252000</v>
       </c>
     </row>
@@ -6744,11 +6706,11 @@
         <v>259000</v>
       </c>
       <c r="D26" s="29">
-        <f>(C26*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>518</v>
       </c>
       <c r="E26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS TX-97 - XE ATX NO AUDIO 259000</v>
       </c>
     </row>
@@ -6763,11 +6725,11 @@
         <v>269000</v>
       </c>
       <c r="D27" s="29">
-        <f>(C27*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>538</v>
       </c>
       <c r="E27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97-B 269000</v>
       </c>
     </row>
@@ -6782,11 +6744,11 @@
         <v>271000</v>
       </c>
       <c r="D28" s="29">
-        <f>(C28*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>542</v>
       </c>
       <c r="E28" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS  P55T2P4 430HX 512K P5 271000</v>
       </c>
     </row>
@@ -6801,11 +6763,11 @@
         <v>292000</v>
       </c>
       <c r="D29" s="29">
-        <f>(C29*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>584</v>
       </c>
       <c r="E29" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97 ATX 292000</v>
       </c>
     </row>
@@ -6820,11 +6782,11 @@
         <v>293000</v>
       </c>
       <c r="D30" s="29">
-        <f>(C30*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>586</v>
       </c>
       <c r="E30" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS XP55T2P4 512K ATX P5 293000</v>
       </c>
     </row>
@@ -6839,11 +6801,11 @@
         <v>307000</v>
       </c>
       <c r="D31" s="29">
-        <f>(C31*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>614</v>
       </c>
       <c r="E31" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS TX-97 -XE ATX -CREATIVE VIBRA16 307000</v>
       </c>
     </row>
@@ -6858,11 +6820,11 @@
         <v>440000</v>
       </c>
       <c r="D32" s="29">
-        <f>(C32*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>880</v>
       </c>
       <c r="E32" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97-A ATX+VGA AGP 4MB 440000</v>
       </c>
     </row>
@@ -6877,11 +6839,11 @@
         <v>487000</v>
       </c>
       <c r="D33" s="29">
-        <f>(C33*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>974</v>
       </c>
       <c r="E33" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97-S ADAPTEC ATX 487000</v>
       </c>
     </row>
@@ -6896,11 +6858,11 @@
         <v>566000</v>
       </c>
       <c r="D34" s="29">
-        <f>(C34*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1132</v>
       </c>
       <c r="E34" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS P65UP5+P55T2D 512K DUAL P5 566000</v>
       </c>
     </row>
@@ -6915,11 +6877,11 @@
         <v>802000</v>
       </c>
       <c r="D35" s="29">
-        <f>(C35*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1604</v>
       </c>
       <c r="E35" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS P2L97-DS DUAL P II 802000</v>
       </c>
     </row>
@@ -6934,11 +6896,11 @@
         <v>1579000</v>
       </c>
       <c r="D36" s="29">
-        <f>(C36*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>3158</v>
       </c>
       <c r="E36" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>M/B ASUS P65UP8+PKND DUAL PII 1579000</v>
       </c>
     </row>
@@ -6953,11 +6915,11 @@
         <v>70000</v>
       </c>
       <c r="D37" s="29">
-        <f>(C37*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="E37" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA S3 3D PRO VIRGE 2MB 70000</v>
       </c>
     </row>
@@ -6972,11 +6934,11 @@
         <v>104000</v>
       </c>
       <c r="D38" s="29">
-        <f>(C38*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
       <c r="E38" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CREATIVE ECLIPSE 4MB 104000</v>
       </c>
     </row>
@@ -6991,11 +6953,11 @@
         <v>127000</v>
       </c>
       <c r="D39" s="29">
-        <f>(C39*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="E39" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADD-ON MATROX m3D 4MB 127000</v>
       </c>
     </row>
@@ -7010,11 +6972,11 @@
         <v>162000</v>
       </c>
       <c r="D40" s="29">
-        <f>(C40*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>324</v>
       </c>
       <c r="E40" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ASUS 3DP-V264GT2 4MB TV-OUT 162000</v>
       </c>
     </row>
@@ -7029,11 +6991,11 @@
         <v>179000</v>
       </c>
       <c r="D41" s="29">
-        <f>(C41*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>358</v>
       </c>
       <c r="E41" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA MYSTIQUE 220 "BULK" 4MB 179000</v>
       </c>
     </row>
@@ -7048,11 +7010,11 @@
         <v>186000</v>
       </c>
       <c r="D42" s="29">
-        <f>(C42*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>372</v>
       </c>
       <c r="E42" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ASUS 3DP-V385GX2 4MB TV-OUT  186000</v>
       </c>
     </row>
@@ -7067,11 +7029,11 @@
         <v>186000</v>
       </c>
       <c r="D43" s="29">
-        <f>(C43*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>372</v>
       </c>
       <c r="E43" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ASUS V385GX2 AGP 4MB TV-OUT 186000</v>
       </c>
     </row>
@@ -7086,11 +7048,11 @@
         <v>203000</v>
       </c>
       <c r="D44" s="29">
-        <f>(C44*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>406</v>
       </c>
       <c r="E44" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CREATIVE GRAPHIC EXXTREME 4MB 203000</v>
       </c>
     </row>
@@ -7105,11 +7067,11 @@
         <v>212000</v>
       </c>
       <c r="D45" s="29">
-        <f>(C45*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>424</v>
       </c>
       <c r="E45" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA MYSTIQUE 220  4MB 212000</v>
       </c>
     </row>
@@ -7124,11 +7086,11 @@
         <v>222000</v>
       </c>
       <c r="D46" s="29">
-        <f>(C46*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>444</v>
       </c>
       <c r="E46" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA ACC. 3D/FX VOODO RUSH 4MB 222000</v>
       </c>
     </row>
@@ -7143,11 +7105,11 @@
         <v>245000</v>
       </c>
       <c r="D47" s="29">
-        <f>(C47*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>490</v>
       </c>
       <c r="E47" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA ACC. 3D/FX VOODO RUSH 6MB 245000</v>
       </c>
     </row>
@@ -7162,11 +7124,11 @@
         <v>251000</v>
       </c>
       <c r="D48" s="29">
-        <f>(C48*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>502</v>
       </c>
       <c r="E48" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RAINBOW R. TV 251000</v>
       </c>
     </row>
@@ -7181,11 +7143,11 @@
         <v>257000</v>
       </c>
       <c r="D49" s="29">
-        <f>(C49*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>514</v>
       </c>
       <c r="E49" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ASUS 3D EXPLORER AGP 4MB TV-OUT 257000</v>
       </c>
     </row>
@@ -7200,11 +7162,11 @@
         <v>269000</v>
       </c>
       <c r="D50" s="29">
-        <f>(C50*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>538</v>
       </c>
       <c r="E50" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ASUS 3D EXPLORER PCI 4MB TV-OUT 269000</v>
       </c>
     </row>
@@ -7219,11 +7181,11 @@
         <v>314000</v>
       </c>
       <c r="D51" s="29">
-        <f>(C51*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>628</v>
       </c>
       <c r="E51" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 4MB "BULK" 314000</v>
       </c>
     </row>
@@ -7238,11 +7200,11 @@
         <v>325000</v>
       </c>
       <c r="D52" s="29">
-        <f>(C52*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="E52" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 4MB AGP 325000</v>
       </c>
     </row>
@@ -7257,11 +7219,11 @@
         <v>347000</v>
       </c>
       <c r="D53" s="29">
-        <f>(C53*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>694</v>
       </c>
       <c r="E53" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>RAINBOW R. STUDIO 347000</v>
       </c>
     </row>
@@ -7276,11 +7238,11 @@
         <v>369000</v>
       </c>
       <c r="D54" s="29">
-        <f>(C54*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>738</v>
       </c>
       <c r="E54" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 4MB 369000</v>
       </c>
     </row>
@@ -7295,11 +7257,11 @@
         <v>402000</v>
       </c>
       <c r="D55" s="29">
-        <f>(C55*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>804</v>
       </c>
       <c r="E55" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CREATIVE VOODO-2 8MB Add-on 402000</v>
       </c>
     </row>
@@ -7314,11 +7276,11 @@
         <v>471000</v>
       </c>
       <c r="D56" s="29">
-        <f>(C56*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>942</v>
       </c>
       <c r="E56" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 8MB "BULK" 471000</v>
       </c>
     </row>
@@ -7333,11 +7295,11 @@
         <v>476000</v>
       </c>
       <c r="D57" s="29">
-        <f>(C57*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>952</v>
       </c>
       <c r="E57" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 8MB AGP 476000</v>
       </c>
     </row>
@@ -7352,11 +7314,11 @@
         <v>492000</v>
       </c>
       <c r="D58" s="29">
-        <f>(C58*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>984</v>
       </c>
       <c r="E58" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CREATIVE VOODO-2 12MB Add-on 492000</v>
       </c>
     </row>
@@ -7371,11 +7333,11 @@
         <v>531000</v>
       </c>
       <c r="D59" s="29">
-        <f>(C59*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1062</v>
       </c>
       <c r="E59" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>VIDEO &amp; GRAPHIC KIT 531000</v>
       </c>
     </row>
@@ -7390,11 +7352,11 @@
         <v>552000</v>
       </c>
       <c r="D60" s="29">
-        <f>(C60*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1104</v>
       </c>
       <c r="E60" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SVGA MILLENNIUM II 8MB 552000</v>
       </c>
     </row>
@@ -7409,11 +7371,11 @@
         <v>1487000</v>
       </c>
       <c r="D61" s="29">
-        <f>(C61*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>2974</v>
       </c>
       <c r="E61" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ASUS 3DP- V500TX 16MB Work.Prof.3d 1487000</v>
       </c>
     </row>
@@ -7428,11 +7390,11 @@
         <v>101000</v>
       </c>
       <c r="D62" s="29">
-        <f>(C62*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="E62" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Contr. PCI SCSI 101000</v>
       </c>
     </row>
@@ -7447,11 +7409,11 @@
         <v>38000</v>
       </c>
       <c r="D63" s="29">
-        <f>(C63*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E63" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Contr. PCI EIDE 38000</v>
       </c>
     </row>
@@ -7466,11 +7428,11 @@
         <v>137000</v>
       </c>
       <c r="D64" s="29">
-        <f>(C64*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>274</v>
       </c>
       <c r="E64" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Contr. PCI SC200 SCSI-2 137000</v>
       </c>
     </row>
@@ -7485,11 +7447,11 @@
         <v>222000</v>
       </c>
       <c r="D65" s="29">
-        <f>(C65*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>444</v>
       </c>
       <c r="E65" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Contr. PCI SC875 Wide SCSI, SCSI-2 222000</v>
       </c>
     </row>
@@ -7504,11 +7466,11 @@
         <v>501000</v>
       </c>
       <c r="D66" s="29">
-        <f>(C66*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="E66" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Contr. PCI AHA 2940AU SCSI-2 501000</v>
       </c>
     </row>
@@ -7523,11 +7485,11 @@
         <v>428000</v>
       </c>
       <c r="D67" s="29">
-        <f>(C67*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>856</v>
       </c>
       <c r="E67" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Contr. PCI AHA 2940UW Wide SCSI OEM 428000</v>
       </c>
     </row>
@@ -7542,11 +7504,11 @@
         <v>561000</v>
       </c>
       <c r="D68" s="29">
-        <f>(C68*IVATOT)/100</f>
+        <f t="shared" si="0"/>
         <v>1122</v>
       </c>
       <c r="E68" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Contr. PCI AHA 2940UW Wide SCSI 561000</v>
       </c>
     </row>
@@ -7561,11 +7523,11 @@
         <v>1578000</v>
       </c>
       <c r="D69" s="29">
-        <f>(C69*IVATOT)/100</f>
+        <f t="shared" ref="D69:D132" si="2">(C69*IVATOT)/100</f>
         <v>3156</v>
       </c>
       <c r="E69" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Contr.PCI DA2100 Dual Wide SCSI 1578000</v>
       </c>
     </row>
@@ -7580,11 +7542,11 @@
         <v>34000</v>
       </c>
       <c r="D70" s="29">
-        <f>(C70*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="E70" s="10" t="str">
-        <f t="shared" ref="E70:E133" si="1">_xlfn.CONCAT(A70," ",C70)</f>
+        <f t="shared" ref="E70:E133" si="3">_xlfn.CONCAT(A70," ",C70)</f>
         <v>Scheda 2 porte seriali, 1 porta parallela 34000</v>
       </c>
     </row>
@@ -7599,11 +7561,11 @@
         <v>20000</v>
       </c>
       <c r="D71" s="29">
-        <f>(C71*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E71" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Scheda singola seriale 20000</v>
       </c>
     </row>
@@ -7618,11 +7580,11 @@
         <v>23000</v>
       </c>
       <c r="D72" s="29">
-        <f>(C72*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="E72" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Scheda doppia seriale 23000</v>
       </c>
     </row>
@@ -7634,11 +7596,11 @@
         <v>98000</v>
       </c>
       <c r="D73" s="29">
-        <f>(C73*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="E73" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Scheda 4 porte seriali 98000</v>
       </c>
     </row>
@@ -7650,11 +7612,11 @@
         <v>251000</v>
       </c>
       <c r="D74" s="29">
-        <f>(C74*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>502</v>
       </c>
       <c r="E74" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Scheda 8 porte seriali 251000</v>
       </c>
     </row>
@@ -7666,11 +7628,11 @@
         <v>15000</v>
       </c>
       <c r="D75" s="29">
-        <f>(C75*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="E75" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Scheda singola parallela 15000</v>
       </c>
     </row>
@@ -7682,11 +7644,11 @@
         <v>14000</v>
       </c>
       <c r="D76" s="29">
-        <f>(C76*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E76" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Scheda 2 porte joystick 14000</v>
       </c>
     </row>
@@ -7701,11 +7663,11 @@
         <v>399000</v>
       </c>
       <c r="D77" s="29">
-        <f>(C77*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>798</v>
       </c>
       <c r="E77" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HARD DISK 2.5"  2,1GB U.Dma 399000</v>
       </c>
     </row>
@@ -7720,11 +7682,11 @@
         <v>259000</v>
       </c>
       <c r="D78" s="29">
-        <f>(C78*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>518</v>
       </c>
       <c r="E78" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 2,1 GB Ultra DMA 5400rpm 259000</v>
       </c>
     </row>
@@ -7739,11 +7701,11 @@
         <v>324000</v>
       </c>
       <c r="D79" s="29">
-        <f>(C79*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>648</v>
       </c>
       <c r="E79" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 3,2 GB Ultra DMA 5400rpm 324000</v>
       </c>
     </row>
@@ -7758,11 +7720,11 @@
         <v>378000</v>
       </c>
       <c r="D80" s="29">
-        <f>(C80*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>756</v>
       </c>
       <c r="E80" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 4,3 GB Ultra DMA 5400rpm 378000</v>
       </c>
     </row>
@@ -7777,11 +7739,11 @@
         <v>469000</v>
       </c>
       <c r="D81" s="29">
-        <f>(C81*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>938</v>
       </c>
       <c r="E81" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 5,2 GB Ultra DMA 5400rpm 469000</v>
       </c>
     </row>
@@ -7796,11 +7758,11 @@
         <v>556000</v>
       </c>
       <c r="D82" s="29">
-        <f>(C82*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1112</v>
       </c>
       <c r="E82" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 6,4 GB Ultra DMA 5400rpm 556000</v>
       </c>
     </row>
@@ -7815,11 +7777,11 @@
         <v>476000</v>
       </c>
       <c r="D83" s="29">
-        <f>(C83*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>952</v>
       </c>
       <c r="E83" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 2 GB SCSI III 5400 rpm 476000</v>
       </c>
     </row>
@@ -7834,11 +7796,11 @@
         <v>477000</v>
       </c>
       <c r="D84" s="29">
-        <f>(C84*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>954</v>
       </c>
       <c r="E84" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 3,2 GB SCSI III 5400rpm 477000</v>
       </c>
     </row>
@@ -7853,11 +7815,11 @@
         <v>556000</v>
       </c>
       <c r="D85" s="29">
-        <f>(C85*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1112</v>
       </c>
       <c r="E85" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 4,3 GB SCSI 5400 rpm 556000</v>
       </c>
     </row>
@@ -7872,11 +7834,11 @@
         <v>695000</v>
       </c>
       <c r="D86" s="29">
-        <f>(C86*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1390</v>
       </c>
       <c r="E86" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 4,5 GB SCSI ULTRA WIDE 7200rpm 695000</v>
       </c>
     </row>
@@ -7891,11 +7853,11 @@
         <v>1279000</v>
       </c>
       <c r="D87" s="29">
-        <f>(C87*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>2558</v>
       </c>
       <c r="E87" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>HD 4,5 GB SCSI ULTRA WIDE 10.000rpm 1279000</v>
       </c>
     </row>
@@ -7910,11 +7872,11 @@
         <v>35000</v>
       </c>
       <c r="D88" s="29">
-        <f>(C88*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E88" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>FDD 1,44MB 35000</v>
       </c>
     </row>
@@ -7929,11 +7891,11 @@
         <v>175000</v>
       </c>
       <c r="D89" s="29">
-        <f>(C89*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
       <c r="E89" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>FLOPPY DRIVE 120MB 175000</v>
       </c>
     </row>
@@ -7948,11 +7910,11 @@
         <v>272000</v>
       </c>
       <c r="D90" s="29">
-        <f>(C90*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>544</v>
       </c>
       <c r="E90" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ZIP DRIVE 100MB PARALL. 272000</v>
       </c>
     </row>
@@ -7967,11 +7929,11 @@
         <v>198000</v>
       </c>
       <c r="D91" s="29">
-        <f>(C91*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="E91" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ZIP ATAPI 100MB INTERNO 198000</v>
       </c>
     </row>
@@ -7986,11 +7948,11 @@
         <v>290000</v>
       </c>
       <c r="D92" s="29">
-        <f>(C92*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>580</v>
       </c>
       <c r="E92" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>ZIP DRIVE 100MB SCSI 290000</v>
       </c>
     </row>
@@ -8005,11 +7967,11 @@
         <v>589000</v>
       </c>
       <c r="D93" s="29">
-        <f>(C93*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1178</v>
       </c>
       <c r="E93" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>JAZ DRIVE 1GB INT. 589000</v>
       </c>
     </row>
@@ -8024,11 +7986,11 @@
         <v>743000</v>
       </c>
       <c r="D94" s="29">
-        <f>(C94*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1486</v>
       </c>
       <c r="E94" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>JAZ DRIVE 1GB EXT. 743000</v>
       </c>
     </row>
@@ -8043,11 +8005,11 @@
         <v>271000</v>
       </c>
       <c r="D95" s="29">
-        <f>(C95*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>542</v>
       </c>
       <c r="E95" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KIT 10  CARTUCCE ZIP DRIVE 271000</v>
       </c>
     </row>
@@ -8062,11 +8024,11 @@
         <v>632000</v>
       </c>
       <c r="D96" s="29">
-        <f>(C96*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1264</v>
       </c>
       <c r="E96" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KIT 3 CARTUCCE JAZ DRIVE 632000</v>
       </c>
     </row>
@@ -8081,11 +8043,11 @@
         <v>90000</v>
       </c>
       <c r="D97" s="29">
-        <f>(C97*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="E97" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KIT 3 CARTUCCE 120MB 3M 90000</v>
       </c>
     </row>
@@ -8100,11 +8062,11 @@
         <v>4000</v>
       </c>
       <c r="D98" s="29">
-        <f>(C98*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E98" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>FRAME HDD  4000</v>
       </c>
     </row>
@@ -8119,11 +8081,11 @@
         <v>5000</v>
       </c>
       <c r="D99" s="29">
-        <f>(C99*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E99" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>FRAME FDD  5000</v>
       </c>
     </row>
@@ -8138,11 +8100,11 @@
         <v>41000</v>
       </c>
       <c r="D100" s="29">
-        <f>(C100*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="E100" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>FRAME REMOVIBILE 3.5" 41000</v>
       </c>
     </row>
@@ -8157,11 +8119,11 @@
         <v>737000</v>
       </c>
       <c r="D101" s="29">
-        <f>(C101*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1474</v>
       </c>
       <c r="E101" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M.O. + CD 4X,  PD 2000 INT. 650 MB 737000</v>
       </c>
     </row>
@@ -8176,11 +8138,11 @@
         <v>910000</v>
       </c>
       <c r="D102" s="29">
-        <f>(C102*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1820</v>
       </c>
       <c r="E102" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M.O. + CD 4X,  PD 2000 EXT. 650 MB 910000</v>
       </c>
     </row>
@@ -8192,11 +8154,11 @@
         <v>241000</v>
       </c>
       <c r="D103" s="29">
-        <f>(C103*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>482</v>
       </c>
       <c r="E103" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>KIT 5 CARTUCCE 650 MB 241000</v>
       </c>
     </row>
@@ -8211,11 +8173,11 @@
         <v>112000</v>
       </c>
       <c r="D104" s="29">
-        <f>(C104*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
       <c r="E104" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CD ROM 24X HITACHI CDR 8330 112000</v>
       </c>
     </row>
@@ -8230,11 +8192,11 @@
         <v>113000</v>
       </c>
       <c r="D105" s="29">
-        <f>(C105*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>226</v>
       </c>
       <c r="E105" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CD ROM 24X CREATIVE 113000</v>
       </c>
     </row>
@@ -8249,11 +8211,11 @@
         <v>121000</v>
       </c>
       <c r="D106" s="29">
-        <f>(C106*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="E106" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CD ROM 24X PIONEER 502-S Bulk 121000</v>
       </c>
     </row>
@@ -8268,11 +8230,11 @@
         <v>160000</v>
       </c>
       <c r="D107" s="29">
-        <f>(C107*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>320</v>
       </c>
       <c r="E107" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CD ROM 34X ASUS 160000</v>
       </c>
     </row>
@@ -8287,11 +8249,11 @@
         <v>195000</v>
       </c>
       <c r="D108" s="29">
-        <f>(C108*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>390</v>
       </c>
       <c r="E108" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CD ROM 24X SCSI NEC 195000</v>
       </c>
     </row>
@@ -8306,11 +8268,11 @@
         <v>215000</v>
       </c>
       <c r="D109" s="29">
-        <f>(C109*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>430</v>
       </c>
       <c r="E109" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CD ROM 32X SCSI WAITEC 215000</v>
       </c>
     </row>
@@ -8325,11 +8287,11 @@
         <v>321000</v>
       </c>
       <c r="D110" s="29">
-        <f>(C110*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>642</v>
       </c>
       <c r="E110" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CD ROM PLEXTOR PX-32TSI 321000</v>
       </c>
     </row>
@@ -8344,11 +8306,11 @@
         <v>614000</v>
       </c>
       <c r="D111" s="29">
-        <f>(C111*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1228</v>
       </c>
       <c r="E111" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>DVD CREATIVE KIT ENCORE DXR2 614000</v>
       </c>
     </row>
@@ -8363,11 +8325,11 @@
         <v>30000</v>
       </c>
       <c r="D112" s="29">
-        <f>(C112*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E112" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CONFEZIONE 10 CDR 74' 30000</v>
       </c>
     </row>
@@ -8382,11 +8344,11 @@
         <v>34000</v>
       </c>
       <c r="D113" s="29">
-        <f>(C113*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="E113" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CD RISCRIVIBILE 74' 34000</v>
       </c>
     </row>
@@ -8401,11 +8363,11 @@
         <v>35000</v>
       </c>
       <c r="D114" s="29">
-        <f>(C114*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E114" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CONFEZIONE 10 CDR 74' KODAK 35000</v>
       </c>
     </row>
@@ -8420,11 +8382,11 @@
         <v>77000</v>
       </c>
       <c r="D115" s="29">
-        <f>(C115*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="E115" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SOFTWARE LABELLER CD KIT 77000</v>
       </c>
     </row>
@@ -8439,11 +8401,11 @@
         <v>723000</v>
       </c>
       <c r="D116" s="29">
-        <f>(C116*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1446</v>
       </c>
       <c r="E116" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WAITEC WT48/1 - GEAR - 723000</v>
       </c>
     </row>
@@ -8458,11 +8420,11 @@
         <v>742000</v>
       </c>
       <c r="D117" s="29">
-        <f>(C117*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1484</v>
       </c>
       <c r="E117" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WAITEC 2036EI/1 - SOFTWARE  742000</v>
       </c>
     </row>
@@ -8477,11 +8439,11 @@
         <v>778000</v>
       </c>
       <c r="D118" s="29">
-        <f>(C118*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1556</v>
       </c>
       <c r="E118" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RICOH MP6200ADP + SOFT.+5 CDR 778000</v>
       </c>
     </row>
@@ -8496,11 +8458,11 @@
         <v>878000</v>
       </c>
       <c r="D119" s="29">
-        <f>(C119*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1756</v>
       </c>
       <c r="E119" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>RICOH MP6200SR - SOFTWARE SCSI 878000</v>
       </c>
     </row>
@@ -8515,11 +8477,11 @@
         <v>883000</v>
       </c>
       <c r="D120" s="29">
-        <f>(C120*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1766</v>
       </c>
       <c r="E120" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>WAITEC 2026/1 - SOFTWARE SCSI 883000</v>
       </c>
     </row>
@@ -8534,11 +8496,11 @@
         <v>913000</v>
       </c>
       <c r="D121" s="29">
-        <f>(C121*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>1826</v>
       </c>
       <c r="E121" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CDR 480i PLASMON EASY CD 913000</v>
       </c>
     </row>
@@ -8553,11 +8515,11 @@
         <v>1125000</v>
       </c>
       <c r="D122" s="29">
-        <f>(C122*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>2250</v>
       </c>
       <c r="E122" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>CDR 480e PLASMON EASY CD 1125000</v>
       </c>
     </row>
@@ -8569,11 +8531,11 @@
         <v>33000</v>
       </c>
       <c r="D123" s="29">
-        <f>(C123*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="E123" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SIMM 8MB 72 PIN (EDO) 33000</v>
       </c>
     </row>
@@ -8585,11 +8547,11 @@
         <v>52000</v>
       </c>
       <c r="D124" s="29">
-        <f>(C124*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="E124" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SIMM 16MB 72 PIN (EDO) 52000</v>
       </c>
     </row>
@@ -8601,11 +8563,11 @@
         <v>97000</v>
       </c>
       <c r="D125" s="29">
-        <f>(C125*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>194</v>
       </c>
       <c r="E125" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>SIMM 32MB 72 PIN (EDO) 97000</v>
       </c>
     </row>
@@ -8620,11 +8582,11 @@
         <v>131000</v>
       </c>
       <c r="D126" s="29">
-        <f>(C126*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>262</v>
       </c>
       <c r="E126" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M/F MOTOROLA 3400PRO 28800 EXT 131000</v>
       </c>
     </row>
@@ -8639,11 +8601,11 @@
         <v>169000</v>
       </c>
       <c r="D127" s="29">
-        <f>(C127*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>338</v>
       </c>
       <c r="E127" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M/F LEONARDO PC 33600 INT OEM 169000</v>
       </c>
     </row>
@@ -8658,11 +8620,11 @@
         <v>190000</v>
       </c>
       <c r="D128" s="29">
-        <f>(C128*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>380</v>
       </c>
       <c r="E128" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M/F LEONARDO PC 33600 EXT 190000</v>
       </c>
     </row>
@@ -8677,11 +8639,11 @@
         <v>191000</v>
       </c>
       <c r="D129" s="29">
-        <f>(C129*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>382</v>
       </c>
       <c r="E129" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M/F MOTOROLA 56K  EXT BULK 191000</v>
       </c>
     </row>
@@ -8696,11 +8658,11 @@
         <v>197000</v>
       </c>
       <c r="D130" s="29">
-        <f>(C130*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>394</v>
       </c>
       <c r="E130" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M/F LEONARDO PC 33600 INT 197000</v>
       </c>
     </row>
@@ -8715,11 +8677,11 @@
         <v>201000</v>
       </c>
       <c r="D131" s="29">
-        <f>(C131*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>402</v>
       </c>
       <c r="E131" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M/F TIZIANO 33600 EXT 201000</v>
       </c>
     </row>
@@ -8734,11 +8696,11 @@
         <v>220000</v>
       </c>
       <c r="D132" s="29">
-        <f>(C132*IVATOT)/100</f>
+        <f t="shared" si="2"/>
         <v>440</v>
       </c>
       <c r="E132" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M/F SPORTSTER FLASH 33600 EXT ITA  220000</v>
       </c>
     </row>
@@ -8753,11 +8715,11 @@
         <v>250000</v>
       </c>
       <c r="D133" s="29">
-        <f>(C133*IVATOT)/100</f>
+        <f t="shared" ref="D133:D196" si="4">(C133*IVATOT)/100</f>
         <v>500</v>
       </c>
       <c r="E133" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>M/F MOTOROLA 56K  EXT 250000</v>
       </c>
     </row>
@@ -8772,11 +8734,11 @@
         <v>257000</v>
       </c>
       <c r="D134" s="29">
-        <f>(C134*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>514</v>
       </c>
       <c r="E134" s="10" t="str">
-        <f t="shared" ref="E134:E197" si="2">_xlfn.CONCAT(A134," ",C134)</f>
+        <f t="shared" ref="E134:E197" si="5">_xlfn.CONCAT(A134," ",C134)</f>
         <v>M/F LEONARDO  56K  EXT 257000</v>
       </c>
     </row>
@@ -8791,11 +8753,11 @@
         <v>278000</v>
       </c>
       <c r="D135" s="29">
-        <f>(C135*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>556</v>
       </c>
       <c r="E135" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>M/F TIZIANO 56K EXT 278000</v>
       </c>
     </row>
@@ -8810,11 +8772,11 @@
         <v>280000</v>
       </c>
       <c r="D136" s="29">
-        <f>(C136*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>560</v>
       </c>
       <c r="E136" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>M/F SPORTSTER MESSAGE PLUS 280000</v>
       </c>
     </row>
@@ -8829,11 +8791,11 @@
         <v>300000</v>
       </c>
       <c r="D137" s="29">
-        <f>(C137*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="E137" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>M/F LEONARDO PCMCIA 33600 300000</v>
       </c>
     </row>
@@ -8848,11 +8810,11 @@
         <v>305000</v>
       </c>
       <c r="D138" s="29">
-        <f>(C138*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>610</v>
       </c>
       <c r="E138" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>KIT VIDEOCONFERENZA "GALILEO" 305000</v>
       </c>
     </row>
@@ -8867,11 +8829,11 @@
         <v>335000</v>
       </c>
       <c r="D139" s="29">
-        <f>(C139*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>670</v>
       </c>
       <c r="E139" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>MODEM ISDN TINTORETTO EXT. 335000</v>
       </c>
     </row>
@@ -8886,11 +8848,11 @@
         <v>360000</v>
       </c>
       <c r="D140" s="29">
-        <f>(C140*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
       <c r="E140" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>M/F LEONARDO PCMCIA 56K 360000</v>
       </c>
     </row>
@@ -8905,11 +8867,11 @@
         <v>429000</v>
       </c>
       <c r="D141" s="29">
-        <f>(C141*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>858</v>
       </c>
       <c r="E141" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>MODEM MOTOROLA ISDN  EXT.64/128K 429000</v>
       </c>
     </row>
@@ -8924,11 +8886,11 @@
         <v>701000</v>
       </c>
       <c r="D142" s="29">
-        <f>(C142*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>1402</v>
       </c>
       <c r="E142" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>M/F ISDN DONATELLO EXT. 701000</v>
       </c>
     </row>
@@ -8943,11 +8905,11 @@
         <v>90000</v>
       </c>
       <c r="D143" s="29">
-        <f>(C143*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="E143" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SOUND AXP201/U PCI 64 90000</v>
       </c>
     </row>
@@ -8962,11 +8924,11 @@
         <v>69000</v>
       </c>
       <c r="D144" s="29">
-        <f>(C144*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="E144" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SOUND BLASTER 16 PnP  O.E.M. 69000</v>
       </c>
     </row>
@@ -8981,11 +8943,11 @@
         <v>89000</v>
       </c>
       <c r="D145" s="29">
-        <f>(C145*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>178</v>
       </c>
       <c r="E145" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SOUND BLASTER 16 PnP NO IDE 89000</v>
       </c>
     </row>
@@ -9000,11 +8962,11 @@
         <v>138000</v>
       </c>
       <c r="D146" s="29">
-        <f>(C146*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="E146" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SOUND BLASTER AWE64 STD OEM 138000</v>
       </c>
     </row>
@@ -9019,11 +8981,11 @@
         <v>196000</v>
       </c>
       <c r="D147" s="29">
-        <f>(C147*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>392</v>
       </c>
       <c r="E147" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SOUND BLASTER AWE64 STANDARD 196000</v>
       </c>
     </row>
@@ -9038,11 +9000,11 @@
         <v>329000</v>
       </c>
       <c r="D148" s="29">
-        <f>(C148*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>658</v>
       </c>
       <c r="E148" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SOUND BLASTER AWE64 GOLD PNP  329000</v>
       </c>
     </row>
@@ -9057,11 +9019,11 @@
         <v>295000</v>
       </c>
       <c r="D149" s="29">
-        <f>(C149*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>590</v>
       </c>
       <c r="E149" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>KIT "DISCOVERY AWE64" 24X PNP 295000</v>
       </c>
     </row>
@@ -9076,11 +9038,11 @@
         <v>19000</v>
       </c>
       <c r="D150" s="29">
-        <f>(C150*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="E150" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SPEAKERS MLI-699 19000</v>
       </c>
     </row>
@@ -9095,11 +9057,11 @@
         <v>26000</v>
       </c>
       <c r="D151" s="29">
-        <f>(C151*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="E151" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SPEAKER 25 W 26000</v>
       </c>
     </row>
@@ -9114,11 +9076,11 @@
         <v>28000</v>
       </c>
       <c r="D152" s="29">
-        <f>(C152*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="E152" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SPEAKER PROFESSIONAL 70 W 28000</v>
       </c>
     </row>
@@ -9133,11 +9095,11 @@
         <v>56000</v>
       </c>
       <c r="D153" s="29">
-        <f>(C153*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="E153" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>ULTRA SPEAKER 130W 56000</v>
       </c>
     </row>
@@ -9149,11 +9111,11 @@
         <v>216000</v>
       </c>
       <c r="D154" s="29">
-        <f>(C154*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>432</v>
       </c>
       <c r="E154" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM 166 INTEL MMX 216000</v>
       </c>
     </row>
@@ -9165,11 +9127,11 @@
         <v>250000</v>
       </c>
       <c r="D155" s="29">
-        <f>(C155*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="E155" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM 200 INTEL MMX 250000</v>
       </c>
     </row>
@@ -9181,11 +9143,11 @@
         <v>382000</v>
       </c>
       <c r="D156" s="29">
-        <f>(C156*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>764</v>
       </c>
       <c r="E156" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM 233 INTEL MMX 382000</v>
       </c>
     </row>
@@ -9197,11 +9159,11 @@
         <v>524000</v>
       </c>
       <c r="D157" s="29">
-        <f>(C157*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>1048</v>
       </c>
       <c r="E157" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM II 233 INTEL 512k 524000</v>
       </c>
     </row>
@@ -9213,11 +9175,11 @@
         <v>757000</v>
       </c>
       <c r="D158" s="29">
-        <f>(C158*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>1514</v>
       </c>
       <c r="E158" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM II 266 INTEL 512k 757000</v>
       </c>
     </row>
@@ -9229,11 +9191,11 @@
         <v>1045000</v>
       </c>
       <c r="D159" s="29">
-        <f>(C159*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>2090</v>
       </c>
       <c r="E159" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM II 300 INTEL 512K 1045000</v>
       </c>
     </row>
@@ -9245,11 +9207,11 @@
         <v>1568000</v>
       </c>
       <c r="D160" s="29">
-        <f>(C160*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>3136</v>
       </c>
       <c r="E160" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM II 333 INTEL 512K 1568000</v>
       </c>
     </row>
@@ -9261,11 +9223,11 @@
         <v>117000</v>
       </c>
       <c r="D161" s="29">
-        <f>(C161*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
       <c r="E161" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SGS P 166+ 117000</v>
       </c>
     </row>
@@ -9277,11 +9239,11 @@
         <v>158000</v>
       </c>
       <c r="D162" s="29">
-        <f>(C162*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="E162" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>IBM 200 MX 158000</v>
       </c>
     </row>
@@ -9293,11 +9255,11 @@
         <v>260000</v>
       </c>
       <c r="D163" s="29">
-        <f>(C163*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>520</v>
       </c>
       <c r="E163" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>IBM 233 MX 260000</v>
       </c>
     </row>
@@ -9309,11 +9271,11 @@
         <v>193000</v>
       </c>
       <c r="D164" s="29">
-        <f>(C164*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>386</v>
       </c>
       <c r="E164" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>AMD K6-166 193000</v>
       </c>
     </row>
@@ -9325,11 +9287,11 @@
         <v>270000</v>
       </c>
       <c r="D165" s="29">
-        <f>(C165*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>540</v>
       </c>
       <c r="E165" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>AMD K6-200 270000</v>
       </c>
     </row>
@@ -9341,11 +9303,11 @@
         <v>314000</v>
       </c>
       <c r="D166" s="29">
-        <f>(C166*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>628</v>
       </c>
       <c r="E166" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>AMD K6-233 314000</v>
       </c>
     </row>
@@ -9357,11 +9319,11 @@
         <v>894000</v>
       </c>
       <c r="D167" s="29">
-        <f>(C167*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>1788</v>
       </c>
       <c r="E167" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM PRO 180 MZH 894000</v>
       </c>
     </row>
@@ -9373,11 +9335,11 @@
         <v>1040000</v>
       </c>
       <c r="D168" s="29">
-        <f>(C168*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>2080</v>
       </c>
       <c r="E168" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>PENTIUM PRO 200 MZH 1040000</v>
       </c>
     </row>
@@ -9389,11 +9351,11 @@
         <v>8000</v>
       </c>
       <c r="D169" s="29">
-        <f>(C169*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="E169" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>VENTOLINA PENTIUM 75-166 8000</v>
       </c>
     </row>
@@ -9405,11 +9367,11 @@
         <v>10000</v>
       </c>
       <c r="D170" s="29">
-        <f>(C170*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E170" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>VENTOLINA PENTIUM 200 10000</v>
       </c>
     </row>
@@ -9421,11 +9383,11 @@
         <v>24000</v>
       </c>
       <c r="D171" s="29">
-        <f>(C171*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="E171" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>VENTOLA PER PENTIUM PRO 24000</v>
       </c>
     </row>
@@ -9440,11 +9402,11 @@
         <v>11000</v>
       </c>
       <c r="D172" s="29">
-        <f>(C172*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="E172" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>VENTOLINA PER IBM/CYRIX 686 11000</v>
       </c>
     </row>
@@ -9459,11 +9421,11 @@
         <v>10000</v>
       </c>
       <c r="D173" s="29">
-        <f>(C173*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E173" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>VENTOLA 3 PIN per TX97 10000</v>
       </c>
     </row>
@@ -9478,11 +9440,11 @@
         <v>26000</v>
       </c>
       <c r="D174" s="29">
-        <f>(C174*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="E174" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>VENTOLA PENTIUM II 26000</v>
       </c>
     </row>
@@ -9497,11 +9459,11 @@
         <v>22000</v>
       </c>
       <c r="D175" s="29">
-        <f>(C175*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="E175" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>TAST. ITA 105 TASTI WIN 95 22000</v>
       </c>
     </row>
@@ -9516,11 +9478,11 @@
         <v>63000</v>
       </c>
       <c r="D176" s="29">
-        <f>(C176*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="E176" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>TAST. ITA   79t 63000</v>
       </c>
     </row>
@@ -9535,11 +9497,11 @@
         <v>63000</v>
       </c>
       <c r="D177" s="29">
-        <f>(C177*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="E177" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>TAST. USA 79t 63000</v>
       </c>
     </row>
@@ -9554,11 +9516,11 @@
         <v>26000</v>
       </c>
       <c r="D178" s="29">
-        <f>(C178*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="E178" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>TAST. USA 105 TASTI WIN95 26000</v>
       </c>
     </row>
@@ -9573,11 +9535,11 @@
         <v>25000</v>
       </c>
       <c r="D179" s="29">
-        <f>(C179*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E179" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>TAST. ITA  105 TASTI NMB, WIN95 25000</v>
       </c>
     </row>
@@ -9592,11 +9554,11 @@
         <v>25000</v>
       </c>
       <c r="D180" s="29">
-        <f>(C180*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E180" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>TAST. ITA  105 TASTI NMB, PS/2 WIN95 25000</v>
       </c>
     </row>
@@ -9611,11 +9573,11 @@
         <v>46000</v>
       </c>
       <c r="D181" s="29">
-        <f>(C181*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="E181" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>TAST. ITA 105 TASTI "CYPRESS"  WIN95 46000</v>
       </c>
     </row>
@@ -9630,11 +9592,11 @@
         <v>37000</v>
       </c>
       <c r="D182" s="29">
-        <f>(C182*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="E182" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>MOUSE  PILOT SERIALE 37000</v>
       </c>
     </row>
@@ -9649,11 +9611,11 @@
         <v>37000</v>
       </c>
       <c r="D183" s="29">
-        <f>(C183*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="E183" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>MOUSE  PILOT P/S2 37000</v>
       </c>
     </row>
@@ -9668,11 +9630,11 @@
         <v>11000</v>
       </c>
       <c r="D184" s="29">
-        <f>(C184*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="E184" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>MOUSE SERIALE 3 TASTI 11000</v>
       </c>
     </row>
@@ -9687,11 +9649,11 @@
         <v>46000</v>
       </c>
       <c r="D185" s="29">
-        <f>(C185*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="E185" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>MOUSE TRACKBALL  46000</v>
       </c>
     </row>
@@ -9706,11 +9668,11 @@
         <v>19000</v>
       </c>
       <c r="D186" s="29">
-        <f>(C186*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="E186" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>MOUSE "RAINBOW" SERIALE 19000</v>
       </c>
     </row>
@@ -9725,11 +9687,11 @@
         <v>13000</v>
       </c>
       <c r="D187" s="29">
-        <f>(C187*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="E187" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>MOUSE  ECHO PS/2 13000</v>
       </c>
     </row>
@@ -9744,11 +9706,11 @@
         <v>26000</v>
       </c>
       <c r="D188" s="29">
-        <f>(C188*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="E188" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>VENUS MOUSE SERIALE 26000</v>
       </c>
     </row>
@@ -9763,11 +9725,11 @@
         <v>26000</v>
       </c>
       <c r="D189" s="29">
-        <f>(C189*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="E189" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>VENUS MOUSE PS/2 26000</v>
       </c>
     </row>
@@ -9782,11 +9744,11 @@
         <v>20000</v>
       </c>
       <c r="D190" s="29">
-        <f>(C190*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E190" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>JOYSTICK DIGITALE 20000</v>
       </c>
     </row>
@@ -9801,11 +9763,11 @@
         <v>49000</v>
       </c>
       <c r="D191" s="29">
-        <f>(C191*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="E191" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>JOYSTICK ULTRASTRIKER 49000</v>
       </c>
     </row>
@@ -9820,11 +9782,11 @@
         <v>33000</v>
       </c>
       <c r="D192" s="29">
-        <f>(C192*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="E192" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>NAVIGATOR MOUSE 33000</v>
       </c>
     </row>
@@ -9839,11 +9801,11 @@
         <v>68000</v>
       </c>
       <c r="D193" s="29">
-        <f>(C193*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="E193" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>JOYSTICK EXCALIBUR 68000</v>
       </c>
     </row>
@@ -9858,11 +9820,11 @@
         <v>33000</v>
       </c>
       <c r="D194" s="29">
-        <f>(C194*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="E194" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>GAMEPAD CONQUEROR 33000</v>
       </c>
     </row>
@@ -9877,11 +9839,11 @@
         <v>147000</v>
       </c>
       <c r="D195" s="29">
-        <f>(C195*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="E195" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>COLOR HAND SCANNER 147000</v>
       </c>
     </row>
@@ -9896,11 +9858,11 @@
         <v>151000</v>
       </c>
       <c r="D196" s="29">
-        <f>(C196*IVATOT)/100</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="E196" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SCANNER COLORADO 4800 SW + OCR  151000</v>
       </c>
     </row>
@@ -9915,11 +9877,11 @@
         <v>197000</v>
       </c>
       <c r="D197" s="29">
-        <f>(C197*IVATOT)/100</f>
+        <f t="shared" ref="D197:D260" si="6">(C197*IVATOT)/100</f>
         <v>394</v>
       </c>
       <c r="E197" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>SCANNER COLORADO D600 SW + OCR  197000</v>
       </c>
     </row>
@@ -9934,11 +9896,11 @@
         <v>310000</v>
       </c>
       <c r="D198" s="29">
-        <f>(C198*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>620</v>
       </c>
       <c r="E198" s="10" t="str">
-        <f t="shared" ref="E198:E261" si="3">_xlfn.CONCAT(A198," ",C198)</f>
+        <f t="shared" ref="E198:E261" si="7">_xlfn.CONCAT(A198," ",C198)</f>
         <v>SCANNER  DIRECT 9600 SW + OCR 310000</v>
       </c>
     </row>
@@ -9953,11 +9915,11 @@
         <v>271000</v>
       </c>
       <c r="D199" s="29">
-        <f>(C199*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>542</v>
       </c>
       <c r="E199" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>SCANNER  JEWEL 4800 SCSI 271000</v>
       </c>
     </row>
@@ -9972,11 +9934,11 @@
         <v>458000</v>
       </c>
       <c r="D200" s="29">
-        <f>(C200*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>916</v>
       </c>
       <c r="E200" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>SCANNER PROFI  9600 SCSI 458000</v>
       </c>
     </row>
@@ -9991,11 +9953,11 @@
         <v>412000</v>
       </c>
       <c r="D201" s="29">
-        <f>(C201*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>824</v>
       </c>
       <c r="E201" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>SCANNER PHODOX U. S. 300 412000</v>
       </c>
     </row>
@@ -10010,11 +9972,11 @@
         <v>807000</v>
       </c>
       <c r="D202" s="29">
-        <f>(C202*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1614</v>
       </c>
       <c r="E202" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>FILMSCAN-200PC 807000</v>
       </c>
     </row>
@@ -10026,11 +9988,11 @@
         <v>4000</v>
       </c>
       <c r="D203" s="29">
-        <f>(C203*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E203" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>TAPPETINO PER MOUSE 4000</v>
       </c>
     </row>
@@ -10042,11 +10004,11 @@
         <v>81000</v>
       </c>
       <c r="D204" s="29">
-        <f>(C204*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="E204" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>ALIMENTATORE 200 W CE 81000</v>
       </c>
     </row>
@@ -10058,11 +10020,11 @@
         <v>125000</v>
       </c>
       <c r="D205" s="29">
-        <f>(C205*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="E205" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>ALIMENTATORE 250 W CE ATX 125000</v>
       </c>
     </row>
@@ -10074,11 +10036,11 @@
         <v>98000</v>
       </c>
       <c r="D206" s="29">
-        <f>(C206*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="E206" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>ALIMENTATORE 230 W CE ATX 98000</v>
       </c>
     </row>
@@ -10090,11 +10052,11 @@
         <v>140000</v>
       </c>
       <c r="D207" s="29">
-        <f>(C207*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="E207" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>ALIMENTATORE 300 W CE ATX 140000</v>
       </c>
     </row>
@@ -10109,11 +10071,11 @@
         <v>5000</v>
       </c>
       <c r="D208" s="29">
-        <f>(C208*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E208" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>CAVO PARALLELO STAMP. MT 1,8 5000</v>
       </c>
     </row>
@@ -10128,11 +10090,11 @@
         <v>6000</v>
       </c>
       <c r="D209" s="29">
-        <f>(C209*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="E209" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>CAVO PARALLELO STAMP. MT 1,8 6000</v>
       </c>
     </row>
@@ -10144,11 +10106,11 @@
         <v>9000</v>
       </c>
       <c r="D210" s="29">
-        <f>(C210*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="E210" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>CAVO PARALLELO STAMP. MT 3 9000</v>
       </c>
     </row>
@@ -10163,11 +10125,11 @@
         <v>8000</v>
       </c>
       <c r="D211" s="29">
-        <f>(C211*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="E211" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>CONNETTORE MOUSE PS/2 8000</v>
       </c>
     </row>
@@ -10179,11 +10141,11 @@
         <v>11000</v>
       </c>
       <c r="D212" s="29">
-        <f>(C212*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="E212" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>CONNETTORE TASTIERA PS/2 11000</v>
       </c>
     </row>
@@ -10198,11 +10160,11 @@
         <v>21000</v>
       </c>
       <c r="D213" s="29">
-        <f>(C213*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="E213" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>CONNETTORE USB/MIR 21000</v>
       </c>
     </row>
@@ -10217,11 +10179,11 @@
         <v>14000</v>
       </c>
       <c r="D214" s="29">
-        <f>(C214*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="E214" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>DATA-SWITCH 2/1 MANUALE 14000</v>
       </c>
     </row>
@@ -10236,11 +10198,11 @@
         <v>23000</v>
       </c>
       <c r="D215" s="29">
-        <f>(C215*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="E215" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>DATA-SWITCH 2/2 MANUALE 23000</v>
       </c>
     </row>
@@ -10255,11 +10217,11 @@
         <v>51000</v>
       </c>
       <c r="D216" s="29">
-        <f>(C216*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="E216" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>DATA-SWITCH 2/1 BIDIREZ. 51000</v>
       </c>
     </row>
@@ -10274,11 +10236,11 @@
         <v>198000</v>
       </c>
       <c r="D217" s="29">
-        <f>(C217*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
       <c r="E217" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>COMBO DOS6.22+WIN3.11+DSK.MAN. 198000</v>
       </c>
     </row>
@@ -10293,11 +10255,11 @@
         <v>167000</v>
       </c>
       <c r="D218" s="29">
-        <f>(C218*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>334</v>
       </c>
       <c r="E218" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WINDOWS 95, MANUALI + CD 167000</v>
       </c>
     </row>
@@ -10312,11 +10274,11 @@
         <v>95000</v>
       </c>
       <c r="D219" s="29">
-        <f>(C219*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="E219" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>LICENZA STUDENTE SISTEMI  95000</v>
       </c>
     </row>
@@ -10331,11 +10293,11 @@
         <v>141000</v>
       </c>
       <c r="D220" s="29">
-        <f>(C220*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>282</v>
       </c>
       <c r="E220" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>LICENZA STUDENTE APPLICAZIONI 141000</v>
       </c>
     </row>
@@ -10350,11 +10312,11 @@
         <v>351000</v>
       </c>
       <c r="D221" s="29">
-        <f>(C221*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>702</v>
       </c>
       <c r="E221" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WIN NT WORKSTATION 4.0 351000</v>
       </c>
     </row>
@@ -10369,11 +10331,11 @@
         <v>414000</v>
       </c>
       <c r="D222" s="29">
-        <f>(C222*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>828</v>
       </c>
       <c r="E222" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>OFFICE SMALL BUSINESS 414000</v>
       </c>
     </row>
@@ -10388,11 +10350,11 @@
         <v>61000</v>
       </c>
       <c r="D223" s="29">
-        <f>(C223*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="E223" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WORKS 4.5 ITA, MANUALI + CD 61000</v>
       </c>
     </row>
@@ -10407,11 +10369,11 @@
         <v>893000</v>
       </c>
       <c r="D224" s="29">
-        <f>(C224*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1786</v>
       </c>
       <c r="E224" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>FIVE PACK WIN 95 893000</v>
       </c>
     </row>
@@ -10426,11 +10388,11 @@
         <v>985000</v>
       </c>
       <c r="D225" s="29">
-        <f>(C225*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1970</v>
       </c>
       <c r="E225" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>FIVE PACK COMBO WIN3.11-DOS 985000</v>
       </c>
     </row>
@@ -10445,11 +10407,11 @@
         <v>296000</v>
       </c>
       <c r="D226" s="29">
-        <f>(C226*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>592</v>
       </c>
       <c r="E226" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>FIVE PACK WORKS 4.5 296000</v>
       </c>
     </row>
@@ -10464,11 +10426,11 @@
         <v>685000</v>
       </c>
       <c r="D227" s="29">
-        <f>(C227*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1370</v>
       </c>
       <c r="E227" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3-PACK  HOME ESSENTIALS 98 685000</v>
       </c>
     </row>
@@ -10483,11 +10445,11 @@
         <v>1138000</v>
       </c>
       <c r="D228" s="29">
-        <f>(C228*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>2276</v>
       </c>
       <c r="E228" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3-PACK WIN NT WORKSTATION 4.0 1138000</v>
       </c>
     </row>
@@ -10502,11 +10464,11 @@
         <v>1334000</v>
       </c>
       <c r="D229" s="29">
-        <f>(C229*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>2668</v>
       </c>
       <c r="E229" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3-PACK OFFICE SMALL BUSINESS 1334000</v>
       </c>
     </row>
@@ -10521,11 +10483,11 @@
         <v>30000</v>
       </c>
       <c r="D230" s="29">
-        <f>(C230*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E230" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>CD VIDEOGUIDA  WIN'95 30000</v>
       </c>
     </row>
@@ -10540,11 +10502,11 @@
         <v>30000</v>
       </c>
       <c r="D231" s="29">
-        <f>(C231*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E231" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>CD VIDEGUIDA INTERNET 30000</v>
       </c>
     </row>
@@ -10559,11 +10521,11 @@
         <v>406000</v>
       </c>
       <c r="D232" s="29">
-        <f>(C232*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>812</v>
       </c>
       <c r="E232" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WINDOWS 95  406000</v>
       </c>
     </row>
@@ -10578,11 +10540,11 @@
         <v>197000</v>
       </c>
       <c r="D233" s="29">
-        <f>(C233*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="E233" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WINDOWS 95 Lic. Agg. 197000</v>
       </c>
     </row>
@@ -10597,11 +10559,11 @@
         <v>645000</v>
       </c>
       <c r="D234" s="29">
-        <f>(C234*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1290</v>
       </c>
       <c r="E234" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>EXCEL 7.0 645000</v>
       </c>
     </row>
@@ -10616,11 +10578,11 @@
         <v>645000</v>
       </c>
       <c r="D235" s="29">
-        <f>(C235*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1290</v>
       </c>
       <c r="E235" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>EXCEL 97 645000</v>
       </c>
     </row>
@@ -10635,11 +10597,11 @@
         <v>259000</v>
       </c>
       <c r="D236" s="29">
-        <f>(C236*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>518</v>
       </c>
       <c r="E236" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>EXCEL 97 Agg. 259000</v>
       </c>
     </row>
@@ -10654,11 +10616,11 @@
         <v>646000</v>
       </c>
       <c r="D237" s="29">
-        <f>(C237*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1292</v>
       </c>
       <c r="E237" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WORD 97 646000</v>
       </c>
     </row>
@@ -10673,11 +10635,11 @@
         <v>259000</v>
       </c>
       <c r="D238" s="29">
-        <f>(C238*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>518</v>
       </c>
       <c r="E238" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WORD 97 Agg. 259000</v>
       </c>
     </row>
@@ -10692,11 +10654,11 @@
         <v>645000</v>
       </c>
       <c r="D239" s="29">
-        <f>(C239*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1290</v>
       </c>
       <c r="E239" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>ACCESS 97 645000</v>
       </c>
     </row>
@@ -10711,11 +10673,11 @@
         <v>879000</v>
       </c>
       <c r="D240" s="29">
-        <f>(C240*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1758</v>
       </c>
       <c r="E240" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>OFFICE 97 SMALL BUSINESS 879000</v>
       </c>
     </row>
@@ -10730,11 +10692,11 @@
         <v>259000</v>
       </c>
       <c r="D241" s="29">
-        <f>(C241*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>518</v>
       </c>
       <c r="E241" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>HOME ESSENTIALS 98 259000</v>
       </c>
     </row>
@@ -10749,11 +10711,11 @@
         <v>274000</v>
       </c>
       <c r="D242" s="29">
-        <f>(C242*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>548</v>
       </c>
       <c r="E242" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>FRONTPAGE 98 274000</v>
       </c>
     </row>
@@ -10768,11 +10730,11 @@
         <v>975000</v>
       </c>
       <c r="D243" s="29">
-        <f>(C243*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1950</v>
       </c>
       <c r="E243" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>OFFICE '97 975000</v>
       </c>
     </row>
@@ -10787,11 +10749,11 @@
         <v>480000</v>
       </c>
       <c r="D244" s="29">
-        <f>(C244*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>960</v>
       </c>
       <c r="E244" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>OFFICE '97 Agg. 480000</v>
       </c>
     </row>
@@ -10806,11 +10768,11 @@
         <v>1187000</v>
       </c>
       <c r="D245" s="29">
-        <f>(C245*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>2374</v>
       </c>
       <c r="E245" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>OFFICE '97 Professional 1187000</v>
       </c>
     </row>
@@ -10825,11 +10787,11 @@
         <v>832000</v>
       </c>
       <c r="D246" s="29">
-        <f>(C246*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1664</v>
       </c>
       <c r="E246" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>OFFICE '97 Professional Agg. 832000</v>
       </c>
     </row>
@@ -10844,11 +10806,11 @@
         <v>227000</v>
       </c>
       <c r="D247" s="29">
-        <f>(C247*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>454</v>
       </c>
       <c r="E247" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>VISUAL BASIC 4.0 STD 227000</v>
       </c>
     </row>
@@ -10863,11 +10825,11 @@
         <v>98000</v>
       </c>
       <c r="D248" s="29">
-        <f>(C248*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="E248" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>VISUAL BASIC 4.0 Agg. 98000</v>
       </c>
     </row>
@@ -10882,11 +10844,11 @@
         <v>1190000</v>
       </c>
       <c r="D249" s="29">
-        <f>(C249*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>2380</v>
       </c>
       <c r="E249" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>VISUAL BASIC 4.0 PROFESSIONAL 1190000</v>
       </c>
     </row>
@@ -10901,11 +10863,11 @@
         <v>300000</v>
       </c>
       <c r="D250" s="29">
-        <f>(C250*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="E250" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>VISUAL BASIC 4.0 PROF. Agg. 300000</v>
       </c>
     </row>
@@ -10920,11 +10882,11 @@
         <v>2407000</v>
       </c>
       <c r="D251" s="29">
-        <f>(C251*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>4814</v>
       </c>
       <c r="E251" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>VISUAL BASIC 4.0 ENTERPRICE 2407000</v>
       </c>
     </row>
@@ -10939,11 +10901,11 @@
         <v>1021000</v>
       </c>
       <c r="D252" s="29">
-        <f>(C252*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>2042</v>
       </c>
       <c r="E252" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>VISUAL BASIC 4.0 ENTERPRICE Agg. 1021000</v>
       </c>
     </row>
@@ -10958,11 +10920,11 @@
         <v>646000</v>
       </c>
       <c r="D253" s="29">
-        <f>(C253*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1292</v>
       </c>
       <c r="E253" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>POWERPOINT 97 646000</v>
       </c>
     </row>
@@ -10977,11 +10939,11 @@
         <v>259000</v>
       </c>
       <c r="D254" s="29">
-        <f>(C254*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>518</v>
       </c>
       <c r="E254" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>POWERPOINT 97 Agg. 259000</v>
       </c>
     </row>
@@ -10996,11 +10958,11 @@
         <v>193000</v>
       </c>
       <c r="D255" s="29">
-        <f>(C255*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
       <c r="E255" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>PUBLISHER 3.0 193000</v>
       </c>
     </row>
@@ -11015,11 +10977,11 @@
         <v>96000</v>
       </c>
       <c r="D256" s="29">
-        <f>(C256*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="E256" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>PUBLISHER 3.0 Agg. 96000</v>
       </c>
     </row>
@@ -11034,11 +10996,11 @@
         <v>594000</v>
       </c>
       <c r="D257" s="29">
-        <f>(C257*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>1188</v>
       </c>
       <c r="E257" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WINDOWS NT 4.0 WORKSTATION 594000</v>
       </c>
     </row>
@@ -11053,11 +11015,11 @@
         <v>282000</v>
       </c>
       <c r="D258" s="29">
-        <f>(C258*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>564</v>
       </c>
       <c r="E258" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WINDOWS NT 4.0 Agg. WORKSTATION 282000</v>
       </c>
     </row>
@@ -11072,11 +11034,11 @@
         <v>1814000</v>
       </c>
       <c r="D259" s="29">
-        <f>(C259*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>3628</v>
       </c>
       <c r="E259" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WINDOWS NT 4.0 SERVER 5 client 1814000</v>
       </c>
     </row>
@@ -11091,11 +11053,11 @@
         <v>193000</v>
       </c>
       <c r="D260" s="29">
-        <f>(C260*IVATOT)/100</f>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
       <c r="E260" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>WINDOWS 3.1 193000</v>
       </c>
     </row>
@@ -11110,11 +11072,11 @@
         <v>654000</v>
       </c>
       <c r="D261" s="29">
-        <f>(C261*IVATOT)/100</f>
+        <f t="shared" ref="D261:D322" si="8">(C261*IVATOT)/100</f>
         <v>1308</v>
       </c>
       <c r="E261" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>POWERPOINT 4.0 654000</v>
       </c>
     </row>
@@ -11129,11 +11091,11 @@
         <v>729000</v>
       </c>
       <c r="D262" s="29">
-        <f>(C262*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1458</v>
       </c>
       <c r="E262" s="10" t="str">
-        <f t="shared" ref="E262:E322" si="4">_xlfn.CONCAT(A262," ",C262)</f>
+        <f t="shared" ref="E262:E322" si="9">_xlfn.CONCAT(A262," ",C262)</f>
         <v>EXCEL 5.0 729000</v>
       </c>
     </row>
@@ -11148,11 +11110,11 @@
         <v>632000</v>
       </c>
       <c r="D263" s="29">
-        <f>(C263*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1264</v>
       </c>
       <c r="E263" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>ACCESS 2.0 632000</v>
       </c>
     </row>
@@ -11167,11 +11129,11 @@
         <v>240000</v>
       </c>
       <c r="D264" s="29">
-        <f>(C264*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="E264" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>ACCESS 2.0 Competitivo 240000</v>
       </c>
     </row>
@@ -11186,11 +11148,11 @@
         <v>955000</v>
       </c>
       <c r="D265" s="29">
-        <f>(C265*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1910</v>
       </c>
       <c r="E265" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>OFFICE 4.2 955000</v>
       </c>
     </row>
@@ -11205,11 +11167,11 @@
         <v>1126000</v>
       </c>
       <c r="D266" s="29">
-        <f>(C266*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>2252</v>
       </c>
       <c r="E266" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>OFFICE 4.3 PROFESSIONAL 1126000</v>
       </c>
     </row>
@@ -11224,11 +11186,11 @@
         <v>297000</v>
       </c>
       <c r="D267" s="29">
-        <f>(C267*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>594</v>
       </c>
       <c r="E267" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON LX300 297000</v>
       </c>
     </row>
@@ -11243,11 +11205,11 @@
         <v>646000</v>
       </c>
       <c r="D268" s="29">
-        <f>(C268*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1292</v>
       </c>
       <c r="E268" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON LX1050+ 646000</v>
       </c>
     </row>
@@ -11262,11 +11224,11 @@
         <v>714000</v>
       </c>
       <c r="D269" s="29">
-        <f>(C269*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1428</v>
       </c>
       <c r="E269" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON FX870 714000</v>
       </c>
     </row>
@@ -11281,11 +11243,11 @@
         <v>807000</v>
       </c>
       <c r="D270" s="29">
-        <f>(C270*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1614</v>
       </c>
       <c r="E270" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON FX1170 807000</v>
       </c>
     </row>
@@ -11300,11 +11262,11 @@
         <v>591000</v>
       </c>
       <c r="D271" s="29">
-        <f>(C271*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1182</v>
       </c>
       <c r="E271" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON LQ570+ 591000</v>
       </c>
     </row>
@@ -11319,11 +11281,11 @@
         <v>918000</v>
       </c>
       <c r="D272" s="29">
-        <f>(C272*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1836</v>
       </c>
       <c r="E272" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON LQ2070+ 918000</v>
       </c>
     </row>
@@ -11338,11 +11300,11 @@
         <v>1265000</v>
       </c>
       <c r="D273" s="29">
-        <f>(C273*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>2530</v>
       </c>
       <c r="E273" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON LQ 2170 1265000</v>
       </c>
     </row>
@@ -11357,11 +11319,11 @@
         <v>256000</v>
       </c>
       <c r="D274" s="29">
-        <f>(C274*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>512</v>
       </c>
       <c r="E274" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS 300COLOR 256000</v>
       </c>
     </row>
@@ -11376,11 +11338,11 @@
         <v>371000</v>
       </c>
       <c r="D275" s="29">
-        <f>(C275*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>742</v>
       </c>
       <c r="E275" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS 400COLOR 371000</v>
       </c>
     </row>
@@ -11395,11 +11357,11 @@
         <v>457000</v>
       </c>
       <c r="D276" s="29">
-        <f>(C276*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>914</v>
       </c>
       <c r="E276" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS 600COLOR 457000</v>
       </c>
     </row>
@@ -11414,11 +11376,11 @@
         <v>642000</v>
       </c>
       <c r="D277" s="29">
-        <f>(C277*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1284</v>
       </c>
       <c r="E277" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS 800COLOR 642000</v>
       </c>
     </row>
@@ -11433,11 +11395,11 @@
         <v>1571000</v>
       </c>
       <c r="D278" s="29">
-        <f>(C278*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>3142</v>
       </c>
       <c r="E278" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS 1520COLOR 1571000</v>
       </c>
     </row>
@@ -11452,11 +11414,11 @@
         <v>756000</v>
       </c>
       <c r="D279" s="29">
-        <f>(C279*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1512</v>
       </c>
       <c r="E279" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS 1000 756000</v>
       </c>
     </row>
@@ -11471,11 +11433,11 @@
         <v>1571000</v>
       </c>
       <c r="D280" s="29">
-        <f>(C280*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>3142</v>
       </c>
       <c r="E280" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS PRO XL+ 1571000</v>
       </c>
     </row>
@@ -11490,11 +11452,11 @@
         <v>2716000</v>
       </c>
       <c r="D281" s="29">
-        <f>(C281*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>5432</v>
       </c>
       <c r="E281" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS  3000 2716000</v>
       </c>
     </row>
@@ -11509,11 +11471,11 @@
         <v>640000</v>
       </c>
       <c r="D282" s="29">
-        <f>(C282*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1280</v>
       </c>
       <c r="E282" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP.EPSON STYLUS PHOTO 640000</v>
       </c>
     </row>
@@ -11528,11 +11490,11 @@
         <v>255000</v>
       </c>
       <c r="D283" s="29">
-        <f>(C283*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
       <c r="E283" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. CANON BJ-250 COLOR 255000</v>
       </c>
     </row>
@@ -11547,11 +11509,11 @@
         <v>413000</v>
       </c>
       <c r="D284" s="29">
-        <f>(C284*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>826</v>
       </c>
       <c r="E284" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. CANON BJC-80 COLOR 413000</v>
       </c>
     </row>
@@ -11566,11 +11528,11 @@
         <v>361000</v>
       </c>
       <c r="D285" s="29">
-        <f>(C285*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>722</v>
       </c>
       <c r="E285" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. CANON BJC-4300 COLOR 361000</v>
       </c>
     </row>
@@ -11585,11 +11547,11 @@
         <v>544000</v>
       </c>
       <c r="D286" s="29">
-        <f>(C286*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1088</v>
       </c>
       <c r="E286" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. CANON BJC-4550 COLOR 544000</v>
       </c>
     </row>
@@ -11604,11 +11566,11 @@
         <v>678000</v>
       </c>
       <c r="D287" s="29">
-        <f>(C287*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1356</v>
       </c>
       <c r="E287" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. CANON BJC-4650 COLOR 678000</v>
       </c>
     </row>
@@ -11623,11 +11585,11 @@
         <v>1054000</v>
       </c>
       <c r="D288" s="29">
-        <f>(C288*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>2108</v>
       </c>
       <c r="E288" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. CANON BJC-5500 COLOR 1054000</v>
       </c>
     </row>
@@ -11642,11 +11604,11 @@
         <v>482000</v>
       </c>
       <c r="D289" s="29">
-        <f>(C289*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>964</v>
       </c>
       <c r="E289" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. CANON BJC-620 COLOR 482000</v>
       </c>
     </row>
@@ -11661,11 +11623,11 @@
         <v>722000</v>
       </c>
       <c r="D290" s="29">
-        <f>(C290*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1444</v>
       </c>
       <c r="E290" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. CANON BJC-7000 COLOR 722000</v>
       </c>
     </row>
@@ -11680,11 +11642,11 @@
         <v>269000</v>
       </c>
       <c r="D291" s="29">
-        <f>(C291*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>538</v>
       </c>
       <c r="E291" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 400L 269000</v>
       </c>
     </row>
@@ -11699,11 +11661,11 @@
         <v>371000</v>
       </c>
       <c r="D292" s="29">
-        <f>(C292*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>742</v>
       </c>
       <c r="E292" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 670 371000</v>
       </c>
     </row>
@@ -11718,11 +11680,11 @@
         <v>462000</v>
       </c>
       <c r="D293" s="29">
-        <f>(C293*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>924</v>
       </c>
       <c r="E293" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 690+ 462000</v>
       </c>
     </row>
@@ -11737,11 +11699,11 @@
         <v>541000</v>
       </c>
       <c r="D294" s="29">
-        <f>(C294*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1082</v>
       </c>
       <c r="E294" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 720C 541000</v>
       </c>
     </row>
@@ -11756,11 +11718,11 @@
         <v>648000</v>
       </c>
       <c r="D295" s="29">
-        <f>(C295*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1296</v>
       </c>
       <c r="E295" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 870 CXI 648000</v>
       </c>
     </row>
@@ -11775,11 +11737,11 @@
         <v>644000</v>
       </c>
       <c r="D296" s="29">
-        <f>(C296*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1288</v>
       </c>
       <c r="E296" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 890C 644000</v>
       </c>
     </row>
@@ -11794,11 +11756,11 @@
         <v>902000</v>
       </c>
       <c r="D297" s="29">
-        <f>(C297*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1804</v>
       </c>
       <c r="E297" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 1100C 902000</v>
       </c>
     </row>
@@ -11813,11 +11775,11 @@
         <v>722000</v>
       </c>
       <c r="D298" s="29">
-        <f>(C298*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1444</v>
       </c>
       <c r="E298" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 6L 722000</v>
       </c>
     </row>
@@ -11832,11 +11794,11 @@
         <v>1457000</v>
       </c>
       <c r="D299" s="29">
-        <f>(C299*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>2914</v>
       </c>
       <c r="E299" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 6P 1457000</v>
       </c>
     </row>
@@ -11851,11 +11813,11 @@
         <v>1786000</v>
       </c>
       <c r="D300" s="29">
-        <f>(C300*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>3572</v>
       </c>
       <c r="E300" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>STAMP. HP 6MP 1786000</v>
       </c>
     </row>
@@ -11870,11 +11832,11 @@
         <v>85000</v>
       </c>
       <c r="D301" s="29">
-        <f>(C301*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>170</v>
       </c>
       <c r="E301" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE DESKTOP   CE CK 131-6 85000</v>
       </c>
     </row>
@@ -11889,11 +11851,11 @@
         <v>84000</v>
       </c>
       <c r="D302" s="29">
-        <f>(C302*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="E302" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE MINITOWER CE CK 136-1 84000</v>
       </c>
     </row>
@@ -11912,7 +11874,7 @@
         <v>230</v>
       </c>
       <c r="E303" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE MIDITOWER CE CK 135-1 115000</v>
       </c>
     </row>
@@ -11927,11 +11889,11 @@
         <v>152000</v>
       </c>
       <c r="D304" s="29">
-        <f>(C304*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>304</v>
       </c>
       <c r="E304" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE BIG TOWER CE   CK139-1 152000</v>
       </c>
     </row>
@@ -11946,11 +11908,11 @@
         <v>82000</v>
       </c>
       <c r="D305" s="29">
-        <f>(C305*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>164</v>
       </c>
       <c r="E305" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE DESKTOP CE CK 131-8 82000</v>
       </c>
     </row>
@@ -11965,11 +11927,11 @@
         <v>84000</v>
       </c>
       <c r="D306" s="29">
-        <f>(C306*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>168</v>
       </c>
       <c r="E306" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE SUB-MIDITOWER CE  CK 132-3 84000</v>
       </c>
     </row>
@@ -11984,11 +11946,11 @@
         <v>115000</v>
       </c>
       <c r="D307" s="29">
-        <f>(C307*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="E307" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE  MIDITOWER CE  CK 135-2 115000</v>
       </c>
     </row>
@@ -12003,11 +11965,11 @@
         <v>153000</v>
       </c>
       <c r="D308" s="29">
-        <f>(C308*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>306</v>
       </c>
       <c r="E308" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE TOWER CE CK 139-2 153000</v>
       </c>
     </row>
@@ -12022,11 +11984,11 @@
         <v>80000</v>
       </c>
       <c r="D309" s="29">
-        <f>(C309*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
       <c r="E309" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE MIDITOWER BC VIP 432 80000</v>
       </c>
     </row>
@@ -12041,11 +12003,11 @@
         <v>102000</v>
       </c>
       <c r="D310" s="29">
-        <f>(C310*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
       <c r="E310" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>CASE TOWER BC VIP 730 102000</v>
       </c>
     </row>
@@ -12060,11 +12022,11 @@
         <v>198000</v>
       </c>
       <c r="D311" s="29">
-        <f>(C311*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>396</v>
       </c>
       <c r="E311" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.REVOLUTION E300  198000</v>
       </c>
     </row>
@@ -12079,11 +12041,11 @@
         <v>233000</v>
       </c>
       <c r="D312" s="29">
-        <f>(C312*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>466</v>
       </c>
       <c r="E312" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.REVOLUTION F450 233000</v>
       </c>
     </row>
@@ -12098,11 +12060,11 @@
         <v>279000</v>
       </c>
       <c r="D313" s="29">
-        <f>(C313*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>558</v>
       </c>
       <c r="E313" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.REVOLUTION L600 279000</v>
       </c>
     </row>
@@ -12117,11 +12079,11 @@
         <v>298000</v>
       </c>
       <c r="D314" s="29">
-        <f>(C314*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>596</v>
       </c>
       <c r="E314" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWER PRO 600 298000</v>
       </c>
     </row>
@@ -12136,11 +12098,11 @@
         <v>478000</v>
       </c>
       <c r="D315" s="29">
-        <f>(C315*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>956</v>
       </c>
       <c r="E315" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWER PRO 750 478000</v>
       </c>
     </row>
@@ -12155,11 +12117,11 @@
         <v>626000</v>
       </c>
       <c r="D316" s="29">
-        <f>(C316*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1252</v>
       </c>
       <c r="E316" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWER PRO 900 626000</v>
       </c>
     </row>
@@ -12174,11 +12136,11 @@
         <v>757000</v>
       </c>
       <c r="D317" s="29">
-        <f>(C317*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>1514</v>
       </c>
       <c r="E317" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWER PRO 1000 757000</v>
       </c>
     </row>
@@ -12193,11 +12155,11 @@
         <v>1128000</v>
       </c>
       <c r="D318" s="29">
-        <f>(C318*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>2256</v>
       </c>
       <c r="E318" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWER PRO 1600 1128000</v>
       </c>
     </row>
@@ -12212,11 +12174,11 @@
         <v>1527000</v>
       </c>
       <c r="D319" s="29">
-        <f>(C319*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>3054</v>
       </c>
       <c r="E319" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWER PRO 2400 1527000</v>
       </c>
     </row>
@@ -12231,11 +12193,11 @@
         <v>4134000</v>
       </c>
       <c r="D320" s="29">
-        <f>(C320*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>8268</v>
       </c>
       <c r="E320" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWERSAVE 4000 4134000</v>
       </c>
     </row>
@@ -12250,11 +12212,11 @@
         <v>6850000</v>
       </c>
       <c r="D321" s="29">
-        <f>(C321*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>13700</v>
       </c>
       <c r="E321" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWERSAVE 7500 6850000</v>
       </c>
     </row>
@@ -12269,11 +12231,11 @@
         <v>11712000</v>
       </c>
       <c r="D322" s="29">
-        <f>(C322*IVATOT)/100</f>
+        <f t="shared" si="8"/>
         <v>23424</v>
       </c>
       <c r="E322" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>GR.CONT.POWERSAVE 12500 11712000</v>
       </c>
     </row>
@@ -12308,16 +12270,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="49" t="s">
         <v>617</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="47" t="s">
         <v>626</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="49" t="s">
         <v>635</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="47" t="s">
         <v>627</v>
       </c>
       <c r="G1" s="34" t="s">
@@ -12325,17 +12287,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="50" t="s">
         <v>618</v>
       </c>
-      <c r="B2" s="61" t="str">
+      <c r="B2" s="48" t="str">
         <f>MID(A2,2,3)</f>
         <v>23</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="51">
         <v>33086</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="48">
         <f>DAY(D2)</f>
         <v>1</v>
       </c>
@@ -12345,17 +12307,17 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="61" t="str">
+      <c r="B3" s="48" t="str">
         <f t="shared" ref="B3:B9" si="0">MID(A3,2,3)</f>
         <v>31</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="51">
         <v>33087</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="48">
         <f t="shared" ref="E3:E9" si="1">DAY(D3)</f>
         <v>2</v>
       </c>
@@ -12365,17 +12327,17 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="B4" s="61" t="str">
+      <c r="B4" s="48" t="str">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="51">
         <v>33088</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="48">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -12385,17 +12347,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="B5" s="61" t="str">
+      <c r="B5" s="48" t="str">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="51">
         <v>44278</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="48">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -12405,17 +12367,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="50" t="s">
         <v>622</v>
       </c>
-      <c r="B6" s="61" t="str">
+      <c r="B6" s="48" t="str">
         <f t="shared" si="0"/>
         <v>09</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="51">
         <v>33090</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -12425,17 +12387,17 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="B7" s="61" t="str">
+      <c r="B7" s="48" t="str">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="51">
         <v>33091</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="48">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -12445,17 +12407,17 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="50" t="s">
         <v>624</v>
       </c>
-      <c r="B8" s="61" t="str">
+      <c r="B8" s="48" t="str">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="51">
         <v>33092</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="48">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -12465,17 +12427,17 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="50" t="s">
         <v>625</v>
       </c>
-      <c r="B9" s="61" t="str">
+      <c r="B9" s="48" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="51">
         <v>33093</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="48">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -12748,16 +12710,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"Buono"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Discreto"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Sufficiente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Respinto"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12933,10 +12895,10 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="44">
         <f>SUBTOTAL(109,spesemese[SPESA])</f>
         <v>4426</v>
       </c>
@@ -13091,10 +13053,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13110,7 +13072,7 @@
     <col min="9" max="9" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -13130,7 +13092,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>36529</v>
       </c>
@@ -13147,7 +13109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>36534</v>
       </c>
@@ -13163,15 +13125,19 @@
       <c r="E3" s="3">
         <v>29</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="60">
         <f>SUMIF($C$2:$C$80,H3,$D$2:$D$80)</f>
         <v>611780</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="48">
+        <f>COUNTIF($C$2:$C$80,H3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>36537</v>
       </c>
@@ -13187,15 +13153,19 @@
       <c r="E4" s="3">
         <v>21</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="65">
-        <f t="shared" ref="I4:I8" si="0">SUMIF($C$2:$C$80,H4,$D$2:$D$80)</f>
+      <c r="I4" s="60">
+        <f t="shared" ref="I4:I6" si="0">SUMIF($C$2:$C$80,H4,$D$2:$D$80)</f>
         <v>30860</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="48">
+        <f t="shared" ref="J4:J6" si="1">COUNTIF($C$2:$C$80,H4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>36543</v>
       </c>
@@ -13211,15 +13181,19 @@
       <c r="E5" s="3">
         <v>29</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="65">
+      <c r="I5" s="60">
         <f t="shared" si="0"/>
         <v>54000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>36545</v>
       </c>
@@ -13235,15 +13209,19 @@
       <c r="E6" s="3">
         <v>15</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="60">
         <f t="shared" si="0"/>
         <v>6765600</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="48">
+        <f>COUNTIF($C$2:$C$80,H6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>36547</v>
       </c>
@@ -13260,7 +13238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>36548</v>
       </c>
@@ -13276,15 +13254,19 @@
       <c r="E8" s="3">
         <v>21</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="60">
         <f>SUMIF($B$2:$B$80,H8,$D$2:$D$80)</f>
         <v>73450</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="48">
+        <f>COUNTIF($B$2:$B$80,H8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>36551</v>
       </c>
@@ -13300,15 +13282,19 @@
       <c r="E9" s="3">
         <v>18</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="65">
-        <f t="shared" ref="I9:I14" si="1">SUMIF($B$2:$B$80,H9,$D$2:$D$80)</f>
+      <c r="I9" s="60">
+        <f t="shared" ref="I9:I13" si="2">SUMIF($B$2:$B$80,H9,$D$2:$D$80)</f>
         <v>50800</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="48">
+        <f t="shared" ref="J9:J14" si="3">COUNTIF($B$2:$B$80,H9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>36552</v>
       </c>
@@ -13324,15 +13310,19 @@
       <c r="E10" s="3">
         <v>23</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="65">
-        <f t="shared" si="1"/>
+      <c r="I10" s="60">
+        <f t="shared" si="2"/>
         <v>98450</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>36553</v>
       </c>
@@ -13348,15 +13338,19 @@
       <c r="E11" s="3">
         <v>24</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="65">
-        <f t="shared" si="1"/>
+      <c r="I11" s="60">
+        <f t="shared" si="2"/>
         <v>7950</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>36554</v>
       </c>
@@ -13372,15 +13366,19 @@
       <c r="E12" s="3">
         <v>27</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="65">
-        <f t="shared" si="1"/>
+      <c r="I12" s="60">
+        <f t="shared" si="2"/>
         <v>283000</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="48">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>36555</v>
       </c>
@@ -13396,15 +13394,19 @@
       <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="I13" s="65">
-        <f t="shared" si="1"/>
+      <c r="I13" s="60">
+        <f t="shared" si="2"/>
         <v>107700</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>36558</v>
       </c>
@@ -13420,15 +13422,19 @@
       <c r="E14" s="3">
         <v>17</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="60">
         <f>SUMIF($B$2:$B$80,H14,$D$2:$D$80)</f>
         <v>27270</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>36558</v>
       </c>
@@ -13445,7 +13451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>36573</v>
       </c>
@@ -14650,10 +14656,10 @@
       <c r="E5" s="3">
         <v>25</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="39">
         <f>SUMIF($C$4:$C$26,G5,$E$4:$E$26)</f>
         <v>893.5</v>
       </c>
@@ -14674,10 +14680,10 @@
       <c r="E6" s="3">
         <v>69</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="39">
         <f t="shared" ref="H6:H10" si="0">SUMIF($C$4:$C$26,G6,$E$4:$E$26)</f>
         <v>121</v>
       </c>
@@ -14698,10 +14704,10 @@
       <c r="E7" s="3">
         <v>554</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="39">
         <f t="shared" si="0"/>
         <v>832</v>
       </c>
@@ -14722,10 +14728,10 @@
       <c r="E8" s="3">
         <v>569</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -14746,10 +14752,10 @@
       <c r="E9" s="3">
         <v>58</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
@@ -14770,10 +14776,10 @@
       <c r="E10" s="3">
         <v>885</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="39">
         <f t="shared" si="0"/>
         <v>1479</v>
       </c>
@@ -15062,7 +15068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8039418F-BBFD-4FF5-84C2-843699CCF006}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -15080,28 +15086,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
+      <c r="A2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="52">
         <f ca="1">TODAY()</f>
         <v>45051</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
